--- a/data/documentation/spreadsheets/done/cherow@cherow.xlsx
+++ b/data/documentation/spreadsheets/done/cherow@cherow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE99BF-3638-4C6F-ADC0-8EE8772BD6E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A51647-512A-47BF-98B3-9605D94E0651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -635,18 +635,18 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="37.6171875" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,28 +666,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
       <c r="G3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -695,7 +692,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -703,7 +700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -711,7 +708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -719,7 +716,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -727,7 +724,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -735,7 +732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -743,7 +740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -751,7 +748,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -759,7 +756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -767,7 +764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -775,7 +772,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -783,7 +780,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -791,7 +788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -799,7 +796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -807,7 +804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -815,7 +812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -823,7 +820,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -831,7 +828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -839,7 +836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -847,7 +844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -855,7 +852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -863,12 +860,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -876,7 +873,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -884,7 +881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -892,7 +889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -900,7 +897,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -908,7 +905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -916,7 +913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -924,7 +921,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -932,12 +929,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -945,7 +942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -953,7 +950,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -961,7 +958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -969,7 +966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -977,7 +974,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -985,18 +982,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F43" t="s">
-        <v>94</v>
-      </c>
       <c r="G43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1004,7 +998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1020,7 +1014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1028,7 +1022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1036,7 +1030,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1044,7 +1038,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>56</v>
       </c>
@@ -1068,7 +1062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>59</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
@@ -1116,7 +1110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>64</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>65</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>66</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>67</v>
       </c>
@@ -1164,7 +1158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>68</v>
       </c>
@@ -1172,7 +1166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>69</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>70</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>71</v>
       </c>
@@ -1196,7 +1190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>72</v>
       </c>
@@ -1204,7 +1198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>74</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>75</v>
       </c>
@@ -1228,7 +1222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>76</v>
       </c>
@@ -1236,7 +1230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>77</v>
       </c>
@@ -1244,7 +1238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>78</v>
       </c>
@@ -1252,7 +1246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>79</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>80</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>81</v>
       </c>
@@ -1276,7 +1270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>82</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>83</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>84</v>
       </c>
@@ -1300,7 +1294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>85</v>
       </c>
@@ -1308,7 +1302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>86</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>87</v>
       </c>
@@ -1324,7 +1318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>88</v>
       </c>
@@ -1332,7 +1326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>89</v>
       </c>
@@ -1340,7 +1334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
         <v>90</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>91</v>
       </c>
@@ -1356,7 +1350,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>92</v>
       </c>
@@ -1364,7 +1358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>93</v>
       </c>
@@ -1372,7 +1366,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
         <v>85</v>
       </c>
